--- a/artfynd/A 24692-2025 artfynd.xlsx
+++ b/artfynd/A 24692-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY54"/>
+  <dimension ref="A1:AY55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6115,6 +6115,123 @@
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>131084967</v>
+      </c>
+      <c r="B55" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Djupsjön, Djupsjön, Upl</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>696067</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6652438</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Ununge</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Tomas Larsson</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Tomas Larsson</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
